--- a/InputData/indst/IFStFS/Indst Fuels Subject to Fuel Shifting.xlsx
+++ b/InputData/indst/IFStFS/Indst Fuels Subject to Fuel Shifting.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeff Rissman\CodeRepositories\eps-us\InputData\indst\IFStFS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Modeling\EPS\US\eps-us\InputData\indst\IFStFS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1A3EA26-E999-4158-8CD0-D8488CBB5D91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A69E6780-DEFA-4474-B549-84B72DC00885}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24390" yWindow="690" windowWidth="21690" windowHeight="18975" xr2:uid="{CEBBDD15-8244-44C2-A2EB-EB506D69E415}"/>
+    <workbookView xWindow="61260" yWindow="1725" windowWidth="24900" windowHeight="14490" activeTab="1" xr2:uid="{CEBBDD15-8244-44C2-A2EB-EB506D69E415}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t>IFStFS Industrial Fuels Subject to Fuel Shifting</t>
   </si>
@@ -214,6 +214,12 @@
   </si>
   <si>
     <t>shifting levers will not work correctly in the model.  Leave electricity and hydrogen set to zero for all industries.</t>
+  </si>
+  <si>
+    <t>green hydrogen if</t>
+  </si>
+  <si>
+    <t>low carbon hydrogen if</t>
   </si>
 </sst>
 </file>
@@ -311,9 +317,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -351,7 +357,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -457,7 +463,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -599,7 +605,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -609,16 +615,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D74327C6-C2CB-4CD6-A944-44D7EC17E747}">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -626,69 +632,69 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>6</v>
       </c>
@@ -704,17 +710,19 @@
   <sheetPr>
     <tabColor theme="4" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:K26"/>
+  <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="46.28515625" customWidth="1"/>
-    <col min="2" max="11" width="13.140625" customWidth="1"/>
+    <col min="1" max="1" width="46.26953125" customWidth="1"/>
+    <col min="2" max="13" width="13.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="5" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
@@ -748,8 +756,14 @@
       <c r="K1" s="7" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L1" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -783,8 +797,14 @@
       <c r="K2" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L2" s="8">
+        <v>0</v>
+      </c>
+      <c r="M2" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -818,8 +838,14 @@
       <c r="K3" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L3" s="8">
+        <v>0</v>
+      </c>
+      <c r="M3" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -853,8 +879,14 @@
       <c r="K4" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L4" s="8">
+        <v>0</v>
+      </c>
+      <c r="M4" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -888,8 +920,14 @@
       <c r="K5" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L5" s="8">
+        <v>0</v>
+      </c>
+      <c r="M5" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -923,8 +961,14 @@
       <c r="K6" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L6" s="8">
+        <v>0</v>
+      </c>
+      <c r="M6" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -958,8 +1002,14 @@
       <c r="K7" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L7" s="8">
+        <v>0</v>
+      </c>
+      <c r="M7" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -993,8 +1043,14 @@
       <c r="K8" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L8" s="8">
+        <v>0</v>
+      </c>
+      <c r="M8" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -1028,8 +1084,14 @@
       <c r="K9" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L9" s="8">
+        <v>0</v>
+      </c>
+      <c r="M9" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -1063,8 +1125,14 @@
       <c r="K10" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L10" s="8">
+        <v>0</v>
+      </c>
+      <c r="M10" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -1098,8 +1166,14 @@
       <c r="K11" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L11" s="8">
+        <v>0</v>
+      </c>
+      <c r="M11" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -1133,8 +1207,14 @@
       <c r="K12" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L12" s="8">
+        <v>0</v>
+      </c>
+      <c r="M12" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -1168,8 +1248,14 @@
       <c r="K13" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L13" s="8">
+        <v>0</v>
+      </c>
+      <c r="M13" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -1203,8 +1289,14 @@
       <c r="K14" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L14" s="8">
+        <v>0</v>
+      </c>
+      <c r="M14" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>22</v>
       </c>
@@ -1238,8 +1330,14 @@
       <c r="K15" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L15" s="8">
+        <v>0</v>
+      </c>
+      <c r="M15" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>23</v>
       </c>
@@ -1273,8 +1371,14 @@
       <c r="K16" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L16" s="8">
+        <v>0</v>
+      </c>
+      <c r="M16" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>24</v>
       </c>
@@ -1308,8 +1412,14 @@
       <c r="K17" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L17" s="8">
+        <v>0</v>
+      </c>
+      <c r="M17" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>25</v>
       </c>
@@ -1343,8 +1453,14 @@
       <c r="K18" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L18" s="8">
+        <v>0</v>
+      </c>
+      <c r="M18" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>26</v>
       </c>
@@ -1378,8 +1494,14 @@
       <c r="K19" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L19" s="8">
+        <v>0</v>
+      </c>
+      <c r="M19" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>27</v>
       </c>
@@ -1413,8 +1535,14 @@
       <c r="K20" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L20" s="8">
+        <v>0</v>
+      </c>
+      <c r="M20" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>28</v>
       </c>
@@ -1448,8 +1576,14 @@
       <c r="K21" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L21" s="8">
+        <v>0</v>
+      </c>
+      <c r="M21" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>29</v>
       </c>
@@ -1483,8 +1617,14 @@
       <c r="K22" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L22" s="8">
+        <v>0</v>
+      </c>
+      <c r="M22" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>30</v>
       </c>
@@ -1518,8 +1658,14 @@
       <c r="K23" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L23" s="8">
+        <v>0</v>
+      </c>
+      <c r="M23" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>31</v>
       </c>
@@ -1553,8 +1699,14 @@
       <c r="K24" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L24" s="8">
+        <v>0</v>
+      </c>
+      <c r="M24" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>32</v>
       </c>
@@ -1588,8 +1740,14 @@
       <c r="K25" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L25" s="8">
+        <v>0</v>
+      </c>
+      <c r="M25" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>33</v>
       </c>
@@ -1621,6 +1779,12 @@
         <v>1</v>
       </c>
       <c r="K26" s="8">
+        <v>0</v>
+      </c>
+      <c r="L26" s="8">
+        <v>0</v>
+      </c>
+      <c r="M26" s="8">
         <v>0</v>
       </c>
     </row>
